--- a/Exp2022/Заповедник/Путевые и маршрутные листы/Маршрутные листы 2022  Хайтов.xlsx
+++ b/Exp2022/Заповедник/Путевые и маршрутные листы/Маршрутные листы 2022  Хайтов.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="50">
   <si>
     <t>ФГБУ "Кандалакшский государственный природный заповедник"</t>
   </si>
@@ -206,6 +206,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
       <t xml:space="preserve">Исполнитель </t>
     </r>
     <r>
@@ -218,6 +223,12 @@
     </r>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>четверг</t>
+  </si>
+  <si>
     <t>пятница</t>
   </si>
   <si>
@@ -236,7 +247,7 @@
     <t>среда</t>
   </si>
   <si>
-    <t>четверг</t>
+    <t>АВГУСТ</t>
   </si>
 </sst>
 </file>
@@ -244,11 +255,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="177" formatCode="_-* #\ ##0_-;\-&quot;₽&quot;* #\ ##0_-;_-&quot;₽&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;₽&quot;* #\ ##0.00_-;\-&quot;₽&quot;* #\ ##0.00_-;_-&quot;₽&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\ ##0_-;\-&quot;₽&quot;* #\ ##0_-;_-&quot;₽&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="179" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="[$-409]ddd;@"/>
   </numFmts>
   <fonts count="28">
@@ -297,19 +308,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -324,9 +322,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,10 +348,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,14 +374,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,6 +395,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -400,16 +426,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -424,21 +450,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -446,7 +457,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,7 +466,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,157 +646,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,20 +656,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -701,12 +718,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -721,6 +742,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,7 +800,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,142 +831,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -980,7 +1010,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1015,8 +1045,23 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1342,10 +1387,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:F113"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="13.2"/>
@@ -2347,10 +2392,15 @@
       <c r="A68" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C68" s="1">
+        <v>123</v>
+      </c>
       <c r="D68" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="10"/>
+      <c r="E68" s="10">
+        <v>44713</v>
+      </c>
       <c r="F68" s="1" t="s">
         <v>13</v>
       </c>
@@ -2359,11 +2409,15 @@
       <c r="A69" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="11"/>
+      <c r="C69" s="34" t="s">
+        <v>41</v>
+      </c>
       <c r="D69" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="10"/>
+      <c r="E69" s="10">
+        <v>44713</v>
+      </c>
       <c r="F69" s="1" t="s">
         <v>14</v>
       </c>
@@ -2400,19 +2454,19 @@
       <c r="G72" s="15"/>
     </row>
     <row r="73" ht="12.75" customHeight="1" spans="1:7">
-      <c r="A73" s="34">
-        <v>44743</v>
-      </c>
-      <c r="B73" s="35" t="s">
-        <v>41</v>
+      <c r="A73" s="35">
+        <v>44749</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>42</v>
       </c>
       <c r="C73" s="19" t="str">
-        <f>IF(B73&lt;&gt;"воскресенье","Я"," ")</f>
+        <f t="shared" ref="C73:C85" si="3">IF(B73&lt;&gt;"воскресенье","Я"," ")</f>
         <v>Я</v>
       </c>
       <c r="D73" s="18"/>
       <c r="E73" s="18" t="str">
-        <f t="shared" ref="E73:E102" si="3">IF(C73&lt;&gt;"Я","В"," ")</f>
+        <f t="shared" ref="E73:E85" si="4">IF(C73&lt;&gt;"Я","В"," ")</f>
         <v> </v>
       </c>
       <c r="F73" s="20" t="s">
@@ -2421,567 +2475,390 @@
       <c r="G73" s="21"/>
     </row>
     <row r="74" ht="14.4" spans="1:7">
-      <c r="A74" s="34">
-        <v>44744</v>
-      </c>
-      <c r="B74" s="35" t="s">
-        <v>42</v>
+      <c r="A74" s="35">
+        <v>44750</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>43</v>
       </c>
       <c r="C74" s="19" t="str">
-        <f t="shared" ref="C74:C103" si="4">IF(B74&lt;&gt;"воскресенье","Я"," ")</f>
+        <f t="shared" si="3"/>
         <v>Я</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v> </v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="21"/>
     </row>
     <row r="75" ht="14.4" spans="1:7">
-      <c r="A75" s="34">
-        <v>44745</v>
-      </c>
-      <c r="B75" s="35" t="s">
-        <v>43</v>
+      <c r="A75" s="35">
+        <v>44751</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="C75" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v> </v>
+        <f t="shared" si="3"/>
+        <v>Я</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>В</v>
+        <f t="shared" si="4"/>
+        <v> </v>
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="21"/>
     </row>
     <row r="76" ht="14.4" spans="1:7">
-      <c r="A76" s="34">
-        <v>44746</v>
-      </c>
-      <c r="B76" s="35" t="s">
-        <v>44</v>
+      <c r="A76" s="35">
+        <v>44752</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>45</v>
       </c>
       <c r="C76" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Я</v>
+        <f t="shared" si="3"/>
+        <v> </v>
       </c>
       <c r="D76" s="18"/>
       <c r="E76" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v> </v>
+        <f t="shared" si="4"/>
+        <v>В</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="21"/>
     </row>
     <row r="77" ht="14.4" spans="1:7">
-      <c r="A77" s="34">
-        <v>44747</v>
-      </c>
-      <c r="B77" s="35" t="s">
-        <v>45</v>
+      <c r="A77" s="35">
+        <v>44753</v>
+      </c>
+      <c r="B77" s="36" t="s">
+        <v>46</v>
       </c>
       <c r="C77" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Я</v>
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v> </v>
       </c>
       <c r="F77" s="20"/>
       <c r="G77" s="21"/>
     </row>
     <row r="78" ht="14.4" spans="1:7">
-      <c r="A78" s="34">
-        <v>44748</v>
-      </c>
-      <c r="B78" s="35" t="s">
-        <v>46</v>
+      <c r="A78" s="35">
+        <v>44754</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>47</v>
       </c>
       <c r="C78" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Я</v>
       </c>
       <c r="D78" s="18"/>
       <c r="E78" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v> </v>
       </c>
       <c r="F78" s="20"/>
       <c r="G78" s="21"/>
     </row>
     <row r="79" ht="14.4" spans="1:7">
-      <c r="A79" s="34">
-        <v>44749</v>
-      </c>
-      <c r="B79" s="35" t="s">
-        <v>47</v>
+      <c r="A79" s="35">
+        <v>44755</v>
+      </c>
+      <c r="B79" s="36" t="s">
+        <v>48</v>
       </c>
       <c r="C79" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Я</v>
       </c>
       <c r="D79" s="18"/>
       <c r="E79" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v> </v>
       </c>
       <c r="F79" s="20"/>
       <c r="G79" s="21"/>
     </row>
     <row r="80" ht="14.4" spans="1:7">
-      <c r="A80" s="34">
-        <v>44750</v>
-      </c>
-      <c r="B80" s="35" t="s">
-        <v>41</v>
+      <c r="A80" s="35">
+        <v>44756</v>
+      </c>
+      <c r="B80" s="36" t="s">
+        <v>42</v>
       </c>
       <c r="C80" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Я</v>
       </c>
       <c r="D80" s="18"/>
       <c r="E80" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v> </v>
       </c>
       <c r="F80" s="20"/>
       <c r="G80" s="21"/>
     </row>
     <row r="81" ht="14.4" spans="1:7">
-      <c r="A81" s="34">
-        <v>44751</v>
-      </c>
-      <c r="B81" s="35" t="s">
-        <v>42</v>
+      <c r="A81" s="35">
+        <v>44757</v>
+      </c>
+      <c r="B81" s="36" t="s">
+        <v>43</v>
       </c>
       <c r="C81" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Я</v>
       </c>
       <c r="D81" s="18"/>
       <c r="E81" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v> </v>
       </c>
       <c r="F81" s="20"/>
       <c r="G81" s="21"/>
     </row>
     <row r="82" ht="14.4" spans="1:7">
-      <c r="A82" s="34">
-        <v>44752</v>
-      </c>
-      <c r="B82" s="35" t="s">
-        <v>43</v>
+      <c r="A82" s="35">
+        <v>44758</v>
+      </c>
+      <c r="B82" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="C82" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v> </v>
+        <f t="shared" si="3"/>
+        <v>Я</v>
       </c>
       <c r="D82" s="18"/>
       <c r="E82" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>В</v>
+        <f t="shared" si="4"/>
+        <v> </v>
       </c>
       <c r="F82" s="20"/>
       <c r="G82" s="21"/>
     </row>
     <row r="83" ht="14.4" spans="1:7">
-      <c r="A83" s="34">
-        <v>44753</v>
-      </c>
-      <c r="B83" s="35" t="s">
-        <v>44</v>
+      <c r="A83" s="35">
+        <v>44759</v>
+      </c>
+      <c r="B83" s="36" t="s">
+        <v>45</v>
       </c>
       <c r="C83" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Я</v>
+        <f t="shared" si="3"/>
+        <v> </v>
       </c>
       <c r="D83" s="18"/>
       <c r="E83" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v> </v>
+        <f t="shared" si="4"/>
+        <v>В</v>
       </c>
       <c r="F83" s="20"/>
       <c r="G83" s="21"/>
     </row>
     <row r="84" ht="14.4" spans="1:7">
-      <c r="A84" s="34">
-        <v>44754</v>
-      </c>
-      <c r="B84" s="35" t="s">
-        <v>45</v>
+      <c r="A84" s="35">
+        <v>44760</v>
+      </c>
+      <c r="B84" s="36" t="s">
+        <v>46</v>
       </c>
       <c r="C84" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Я</v>
       </c>
       <c r="D84" s="18"/>
       <c r="E84" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v> </v>
       </c>
       <c r="F84" s="20"/>
       <c r="G84" s="21"/>
     </row>
     <row r="85" ht="14.4" spans="1:7">
-      <c r="A85" s="34">
-        <v>44755</v>
-      </c>
-      <c r="B85" s="35" t="s">
-        <v>46</v>
+      <c r="A85" s="35">
+        <v>44761</v>
+      </c>
+      <c r="B85" s="36" t="s">
+        <v>47</v>
       </c>
       <c r="C85" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Я</v>
       </c>
       <c r="D85" s="18"/>
       <c r="E85" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v> </v>
       </c>
       <c r="F85" s="20"/>
       <c r="G85" s="21"/>
     </row>
-    <row r="86" ht="14.4" spans="1:7">
-      <c r="A86" s="34">
-        <v>44756</v>
-      </c>
-      <c r="B86" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C86" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Я</v>
-      </c>
+    <row r="86" spans="1:7">
+      <c r="A86" s="18"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
       <c r="D86" s="18"/>
-      <c r="E86" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v> </v>
-      </c>
+      <c r="E86" s="18"/>
       <c r="F86" s="20"/>
       <c r="G86" s="21"/>
     </row>
-    <row r="87" ht="14.4" spans="1:7">
-      <c r="A87" s="34">
-        <v>44757</v>
-      </c>
-      <c r="B87" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C87" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Я</v>
-      </c>
+    <row r="87" spans="1:7">
+      <c r="A87" s="18"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
       <c r="D87" s="18"/>
-      <c r="E87" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v> </v>
-      </c>
+      <c r="E87" s="18"/>
       <c r="F87" s="20"/>
       <c r="G87" s="21"/>
     </row>
-    <row r="88" ht="14.4" spans="1:7">
-      <c r="A88" s="34">
-        <v>44758</v>
-      </c>
-      <c r="B88" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C88" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Я</v>
-      </c>
+    <row r="88" spans="1:7">
+      <c r="A88" s="18"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
       <c r="D88" s="18"/>
-      <c r="E88" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v> </v>
-      </c>
+      <c r="E88" s="18"/>
       <c r="F88" s="20"/>
       <c r="G88" s="21"/>
     </row>
-    <row r="89" ht="14.4" spans="1:7">
-      <c r="A89" s="34">
-        <v>44759</v>
-      </c>
-      <c r="B89" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C89" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v> </v>
-      </c>
+    <row r="89" spans="1:7">
+      <c r="A89" s="18"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
       <c r="D89" s="18"/>
-      <c r="E89" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>В</v>
-      </c>
+      <c r="E89" s="18"/>
       <c r="F89" s="20"/>
       <c r="G89" s="21"/>
     </row>
-    <row r="90" ht="14.4" spans="1:7">
-      <c r="A90" s="34">
-        <v>44760</v>
-      </c>
-      <c r="B90" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C90" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Я</v>
-      </c>
+    <row r="90" spans="1:7">
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
       <c r="D90" s="18"/>
-      <c r="E90" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v> </v>
-      </c>
+      <c r="E90" s="18"/>
       <c r="F90" s="20"/>
       <c r="G90" s="21"/>
     </row>
-    <row r="91" ht="14.4" spans="1:7">
-      <c r="A91" s="34">
-        <v>44761</v>
-      </c>
-      <c r="B91" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C91" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Я</v>
-      </c>
+    <row r="91" spans="1:7">
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
       <c r="D91" s="18"/>
-      <c r="E91" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v> </v>
-      </c>
+      <c r="E91" s="18"/>
       <c r="F91" s="20"/>
       <c r="G91" s="21"/>
     </row>
     <row r="92" ht="14.4" spans="1:7">
-      <c r="A92" s="34">
-        <v>44762</v>
-      </c>
-      <c r="B92" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C92" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Я</v>
-      </c>
+      <c r="A92" s="35"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="19"/>
       <c r="D92" s="18"/>
-      <c r="E92" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v> </v>
-      </c>
+      <c r="E92" s="18"/>
       <c r="F92" s="20"/>
       <c r="G92" s="21"/>
     </row>
     <row r="93" ht="14.4" spans="1:7">
-      <c r="A93" s="34">
-        <v>44763</v>
-      </c>
-      <c r="B93" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C93" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Я</v>
-      </c>
+      <c r="A93" s="35"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="19"/>
       <c r="D93" s="18"/>
-      <c r="E93" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v> </v>
-      </c>
+      <c r="E93" s="18"/>
       <c r="F93" s="20"/>
       <c r="G93" s="21"/>
     </row>
     <row r="94" ht="14.4" spans="1:7">
-      <c r="A94" s="34">
-        <v>44764</v>
-      </c>
-      <c r="B94" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C94" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Я</v>
-      </c>
+      <c r="A94" s="35"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="19"/>
       <c r="D94" s="18"/>
-      <c r="E94" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v> </v>
-      </c>
+      <c r="E94" s="18"/>
       <c r="F94" s="20"/>
       <c r="G94" s="21"/>
     </row>
     <row r="95" ht="14.4" spans="1:7">
-      <c r="A95" s="34">
-        <v>44765</v>
-      </c>
-      <c r="B95" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C95" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Я</v>
-      </c>
+      <c r="A95" s="35"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="19"/>
       <c r="D95" s="18"/>
-      <c r="E95" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v> </v>
-      </c>
+      <c r="E95" s="18"/>
       <c r="F95" s="20"/>
       <c r="G95" s="21"/>
     </row>
     <row r="96" ht="14.4" spans="1:7">
-      <c r="A96" s="34">
-        <v>44766</v>
-      </c>
-      <c r="B96" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C96" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v> </v>
-      </c>
+      <c r="A96" s="35"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="19"/>
       <c r="D96" s="18"/>
-      <c r="E96" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>В</v>
-      </c>
+      <c r="E96" s="18"/>
       <c r="F96" s="20"/>
       <c r="G96" s="21"/>
     </row>
     <row r="97" ht="14.4" spans="1:7">
-      <c r="A97" s="34">
-        <v>44767</v>
-      </c>
-      <c r="B97" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C97" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Я</v>
-      </c>
+      <c r="A97" s="35"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="19"/>
       <c r="D97" s="18"/>
-      <c r="E97" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v> </v>
-      </c>
+      <c r="E97" s="18"/>
       <c r="F97" s="20"/>
       <c r="G97" s="21"/>
     </row>
     <row r="98" ht="14.4" spans="1:7">
-      <c r="A98" s="34">
-        <v>44768</v>
-      </c>
-      <c r="B98" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C98" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Я</v>
-      </c>
+      <c r="A98" s="35"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="19"/>
       <c r="D98" s="18"/>
-      <c r="E98" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v> </v>
-      </c>
+      <c r="E98" s="18"/>
       <c r="F98" s="20"/>
       <c r="G98" s="21"/>
     </row>
     <row r="99" ht="14.4" spans="1:7">
-      <c r="A99" s="34">
-        <v>44769</v>
-      </c>
-      <c r="B99" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C99" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Я</v>
-      </c>
+      <c r="A99" s="35"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="19"/>
       <c r="D99" s="18"/>
-      <c r="E99" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v> </v>
-      </c>
+      <c r="E99" s="18"/>
       <c r="F99" s="20"/>
       <c r="G99" s="21"/>
     </row>
     <row r="100" ht="14.4" spans="1:7">
-      <c r="A100" s="34">
-        <v>44770</v>
-      </c>
-      <c r="B100" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C100" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Я</v>
-      </c>
+      <c r="A100" s="35"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="19"/>
       <c r="D100" s="18"/>
-      <c r="E100" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v> </v>
-      </c>
+      <c r="E100" s="18"/>
       <c r="F100" s="20"/>
       <c r="G100" s="21"/>
     </row>
     <row r="101" ht="14.4" spans="1:7">
-      <c r="A101" s="34">
-        <v>44771</v>
-      </c>
-      <c r="B101" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C101" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Я</v>
-      </c>
+      <c r="A101" s="35"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="19"/>
       <c r="D101" s="18"/>
-      <c r="E101" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v> </v>
-      </c>
+      <c r="E101" s="18"/>
       <c r="F101" s="20"/>
       <c r="G101" s="21"/>
     </row>
     <row r="102" ht="14.4" spans="1:7">
-      <c r="A102" s="34">
-        <v>44772</v>
-      </c>
-      <c r="B102" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C102" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Я</v>
-      </c>
+      <c r="A102" s="35"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="19"/>
       <c r="D102" s="18"/>
-      <c r="E102" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v> </v>
-      </c>
+      <c r="E102" s="18"/>
       <c r="F102" s="20"/>
       <c r="G102" s="21"/>
     </row>
     <row r="103" ht="14.4" spans="1:7">
-      <c r="A103" s="34">
-        <v>44773</v>
-      </c>
-      <c r="B103" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C103" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v> </v>
-      </c>
+      <c r="A103" s="35"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="19"/>
       <c r="D103" s="18"/>
       <c r="E103" s="18"/>
       <c r="F103" s="20"/>
@@ -2994,12 +2871,12 @@
       <c r="B104" s="24"/>
       <c r="C104" s="25">
         <f>COUNTA(A74:A102)-E104</f>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D104" s="18"/>
       <c r="E104" s="18">
         <f>COUNTIF(E73:E102,"В")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F104" s="20"/>
       <c r="G104" s="21"/>
@@ -3143,17 +3020,710 @@
       <c r="F117" s="27"/>
       <c r="G117" s="27"/>
     </row>
-    <row r="118" ht="13.8" spans="1:7">
-      <c r="A118" s="32"/>
-      <c r="B118" s="27"/>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
+    <row r="118" spans="1:7">
+      <c r="A118" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
       <c r="G118" s="27"/>
     </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+    </row>
+    <row r="122" ht="15.6" spans="1:6">
+      <c r="A122" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+    </row>
+    <row r="123" ht="15.6" spans="1:6">
+      <c r="A123" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="9">
+        <v>2022</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="124" ht="15.6" spans="1:6">
+      <c r="A124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="1">
+        <f>D123</f>
+        <v>2022</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" ht="15.6" spans="1:1">
+      <c r="A125" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="1">
+        <v>123</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" s="10">
+        <v>44713</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" s="10">
+        <v>44713</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" ht="13.95"/>
+    <row r="129" ht="13.95" spans="1:6">
+      <c r="A129" s="12"/>
+      <c r="B129" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="14"/>
+      <c r="E129" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="12"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+    </row>
+    <row r="131" ht="14.4" spans="1:6">
+      <c r="A131" s="37">
+        <v>44777</v>
+      </c>
+      <c r="B131" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C131" s="19" t="str">
+        <f>IF(B131&lt;&gt;"воскресенье","Я"," ")</f>
+        <v>Я</v>
+      </c>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18" t="str">
+        <f>IF(C131&lt;&gt;"Я","В"," ")</f>
+        <v> </v>
+      </c>
+      <c r="F131" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" ht="14.4" spans="1:6">
+      <c r="A132" s="37">
+        <v>44778</v>
+      </c>
+      <c r="B132" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C132" s="19" t="str">
+        <f t="shared" ref="C132:C151" si="5">IF(B132&lt;&gt;"воскресенье","Я"," ")</f>
+        <v>Я</v>
+      </c>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18" t="str">
+        <f t="shared" ref="E132:E150" si="6">IF(C132&lt;&gt;"Я","В"," ")</f>
+        <v> </v>
+      </c>
+      <c r="F132" s="20"/>
+    </row>
+    <row r="133" ht="14.4" spans="1:6">
+      <c r="A133" s="37">
+        <v>44779</v>
+      </c>
+      <c r="B133" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C133" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Я</v>
+      </c>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v> </v>
+      </c>
+      <c r="F133" s="20"/>
+    </row>
+    <row r="134" ht="14.4" spans="1:6">
+      <c r="A134" s="37">
+        <v>44780</v>
+      </c>
+      <c r="B134" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C134" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v> </v>
+      </c>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>В</v>
+      </c>
+      <c r="F134" s="20"/>
+    </row>
+    <row r="135" ht="14.4" spans="1:6">
+      <c r="A135" s="37">
+        <v>44781</v>
+      </c>
+      <c r="B135" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C135" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Я</v>
+      </c>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v> </v>
+      </c>
+      <c r="F135" s="20"/>
+    </row>
+    <row r="136" ht="14.4" spans="1:6">
+      <c r="A136" s="37">
+        <v>44782</v>
+      </c>
+      <c r="B136" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C136" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Я</v>
+      </c>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v> </v>
+      </c>
+      <c r="F136" s="20"/>
+    </row>
+    <row r="137" ht="14.4" spans="1:6">
+      <c r="A137" s="37">
+        <v>44783</v>
+      </c>
+      <c r="B137" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C137" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Я</v>
+      </c>
+      <c r="D137" s="18"/>
+      <c r="E137" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v> </v>
+      </c>
+      <c r="F137" s="20"/>
+    </row>
+    <row r="138" ht="14.4" spans="1:6">
+      <c r="A138" s="37">
+        <v>44784</v>
+      </c>
+      <c r="B138" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C138" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Я</v>
+      </c>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v> </v>
+      </c>
+      <c r="F138" s="20"/>
+    </row>
+    <row r="139" ht="14.4" spans="1:6">
+      <c r="A139" s="37">
+        <v>44785</v>
+      </c>
+      <c r="B139" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C139" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Я</v>
+      </c>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v> </v>
+      </c>
+      <c r="F139" s="20"/>
+    </row>
+    <row r="140" ht="14.4" spans="1:6">
+      <c r="A140" s="37">
+        <v>44786</v>
+      </c>
+      <c r="B140" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C140" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Я</v>
+      </c>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v> </v>
+      </c>
+      <c r="F140" s="20"/>
+    </row>
+    <row r="141" ht="14.4" spans="1:6">
+      <c r="A141" s="37">
+        <v>44787</v>
+      </c>
+      <c r="B141" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C141" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v> </v>
+      </c>
+      <c r="D141" s="18"/>
+      <c r="E141" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>В</v>
+      </c>
+      <c r="F141" s="20"/>
+    </row>
+    <row r="142" ht="14.4" spans="1:6">
+      <c r="A142" s="37">
+        <v>44788</v>
+      </c>
+      <c r="B142" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C142" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Я</v>
+      </c>
+      <c r="D142" s="18"/>
+      <c r="E142" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v> </v>
+      </c>
+      <c r="F142" s="20"/>
+    </row>
+    <row r="143" ht="14.4" spans="1:6">
+      <c r="A143" s="37">
+        <v>44789</v>
+      </c>
+      <c r="B143" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C143" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Я</v>
+      </c>
+      <c r="D143" s="18"/>
+      <c r="E143" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v> </v>
+      </c>
+      <c r="F143" s="20"/>
+    </row>
+    <row r="144" ht="14.4" spans="1:6">
+      <c r="A144" s="37">
+        <v>44790</v>
+      </c>
+      <c r="B144" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C144" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Я</v>
+      </c>
+      <c r="D144" s="18"/>
+      <c r="E144" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v> </v>
+      </c>
+      <c r="F144" s="20"/>
+    </row>
+    <row r="145" ht="14.4" spans="1:6">
+      <c r="A145" s="37">
+        <v>44791</v>
+      </c>
+      <c r="B145" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C145" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Я</v>
+      </c>
+      <c r="D145" s="18"/>
+      <c r="E145" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v> </v>
+      </c>
+      <c r="F145" s="20"/>
+    </row>
+    <row r="146" ht="14.4" spans="1:6">
+      <c r="A146" s="37">
+        <v>44792</v>
+      </c>
+      <c r="B146" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C146" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Я</v>
+      </c>
+      <c r="D146" s="18"/>
+      <c r="E146" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v> </v>
+      </c>
+      <c r="F146" s="20"/>
+    </row>
+    <row r="147" ht="14.4" spans="1:6">
+      <c r="A147" s="37">
+        <v>44793</v>
+      </c>
+      <c r="B147" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C147" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Я</v>
+      </c>
+      <c r="D147" s="18"/>
+      <c r="E147" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v> </v>
+      </c>
+      <c r="F147" s="20"/>
+    </row>
+    <row r="148" ht="14.4" spans="1:6">
+      <c r="A148" s="37">
+        <v>44794</v>
+      </c>
+      <c r="B148" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C148" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v> </v>
+      </c>
+      <c r="D148" s="18"/>
+      <c r="E148" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>В</v>
+      </c>
+      <c r="F148" s="20"/>
+    </row>
+    <row r="149" ht="14.4" spans="1:6">
+      <c r="A149" s="37">
+        <v>44795</v>
+      </c>
+      <c r="B149" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C149" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Я</v>
+      </c>
+      <c r="D149" s="18"/>
+      <c r="E149" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v> </v>
+      </c>
+      <c r="F149" s="20"/>
+    </row>
+    <row r="150" ht="14.4" spans="1:6">
+      <c r="A150" s="37">
+        <v>44796</v>
+      </c>
+      <c r="B150" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C150" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>Я</v>
+      </c>
+      <c r="D150" s="18"/>
+      <c r="E150" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v> </v>
+      </c>
+      <c r="F150" s="20"/>
+    </row>
+    <row r="151" ht="14.4" spans="1:6">
+      <c r="A151" s="35"/>
+      <c r="B151" s="40"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="20"/>
+    </row>
+    <row r="152" ht="14.4" spans="1:6">
+      <c r="A152" s="35"/>
+      <c r="B152" s="40"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="18"/>
+      <c r="F152" s="20"/>
+    </row>
+    <row r="153" ht="14.4" spans="1:6">
+      <c r="A153" s="35"/>
+      <c r="B153" s="40"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="18"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="20"/>
+    </row>
+    <row r="154" ht="14.4" spans="1:6">
+      <c r="A154" s="35"/>
+      <c r="B154" s="40"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="20"/>
+    </row>
+    <row r="155" ht="14.4" spans="1:6">
+      <c r="A155" s="35"/>
+      <c r="B155" s="36"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="18"/>
+      <c r="F155" s="20"/>
+    </row>
+    <row r="156" ht="14.4" spans="1:6">
+      <c r="A156" s="35"/>
+      <c r="B156" s="36"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="18"/>
+      <c r="E156" s="18"/>
+      <c r="F156" s="20"/>
+    </row>
+    <row r="157" ht="14.4" spans="1:6">
+      <c r="A157" s="35"/>
+      <c r="B157" s="36"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="18"/>
+      <c r="E157" s="18"/>
+      <c r="F157" s="20"/>
+    </row>
+    <row r="158" ht="14.4" spans="1:6">
+      <c r="A158" s="35"/>
+      <c r="B158" s="36"/>
+      <c r="C158" s="19"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="18"/>
+      <c r="F158" s="20"/>
+    </row>
+    <row r="159" ht="14.4" spans="1:6">
+      <c r="A159" s="35"/>
+      <c r="B159" s="36"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="18"/>
+      <c r="E159" s="18"/>
+      <c r="F159" s="20"/>
+    </row>
+    <row r="160" ht="14.4" spans="1:6">
+      <c r="A160" s="35"/>
+      <c r="B160" s="36"/>
+      <c r="C160" s="19"/>
+      <c r="D160" s="18"/>
+      <c r="E160" s="18"/>
+      <c r="F160" s="20"/>
+    </row>
+    <row r="161" ht="14.4" spans="1:6">
+      <c r="A161" s="35"/>
+      <c r="B161" s="36"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="18"/>
+      <c r="E161" s="18"/>
+      <c r="F161" s="20"/>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B162" s="24"/>
+      <c r="C162" s="25">
+        <f>COUNTA(A132:A160)-E162</f>
+        <v>16</v>
+      </c>
+      <c r="D162" s="18"/>
+      <c r="E162" s="18">
+        <f>COUNTIF(E131:E160,"В")</f>
+        <v>3</v>
+      </c>
+      <c r="F162" s="20"/>
+    </row>
+    <row r="163" ht="13.8" spans="1:6">
+      <c r="A163" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C163" s="27"/>
+      <c r="D163" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E163" s="27"/>
+      <c r="F163" s="27"/>
+    </row>
+    <row r="164" ht="13.8" spans="1:6">
+      <c r="A164" s="28"/>
+      <c r="C164" s="27"/>
+      <c r="D164" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E164" s="27"/>
+      <c r="F164" s="27"/>
+    </row>
+    <row r="165" ht="13.8" spans="1:6">
+      <c r="A165" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D165" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F165" s="27"/>
+    </row>
+    <row r="166" ht="13.8" spans="1:6">
+      <c r="A166" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B166" s="27"/>
+      <c r="C166" s="27"/>
+      <c r="D166" s="27"/>
+      <c r="E166" s="27"/>
+      <c r="F166" s="27"/>
+    </row>
+    <row r="167" ht="13.8" spans="1:6">
+      <c r="A167" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B167" s="27"/>
+      <c r="C167" s="27"/>
+      <c r="D167" s="27"/>
+      <c r="E167" s="27"/>
+      <c r="F167" s="27"/>
+    </row>
+    <row r="168" ht="13.8" spans="1:6">
+      <c r="A168" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B168" s="27"/>
+      <c r="C168" s="27"/>
+      <c r="D168" s="27"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="27"/>
+    </row>
+    <row r="169" ht="13.8" spans="1:6">
+      <c r="A169" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B169" s="27"/>
+      <c r="C169" s="27"/>
+      <c r="D169" s="27"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="27"/>
+    </row>
+    <row r="170" ht="13.8" spans="1:6">
+      <c r="A170" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B170" s="27"/>
+      <c r="C170" s="27"/>
+      <c r="D170" s="27"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="27"/>
+    </row>
+    <row r="171" ht="13.8" spans="1:6">
+      <c r="A171" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B171" s="27"/>
+      <c r="C171" s="27"/>
+      <c r="D171" s="27"/>
+      <c r="E171" s="27">
+        <f>D123</f>
+        <v>2022</v>
+      </c>
+      <c r="F171" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="36">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
@@ -3168,16 +3738,28 @@
     <mergeCell ref="A64:F64"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="A162:B162"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A129:A130"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B129:B130"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="E71:E72"/>
+    <mergeCell ref="E129:E130"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F45"/>
     <mergeCell ref="F71:F72"/>
     <mergeCell ref="F73:F104"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="F131:F162"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="0.490277777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="94" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
